--- a/data.xlsx
+++ b/data.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="62">
   <si>
     <t xml:space="preserve">role_id</t>
   </si>
@@ -132,6 +132,12 @@
   </si>
   <si>
     <t xml:space="preserve">./img/wusiman.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">咕嘎</t>
+  </si>
+  <si>
+    <t xml:space="preserve">./img/guga.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">source</t>
@@ -187,6 +193,9 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">朋友</t>
+  </si>
+  <si>
     <t xml:space="preserve">爷爷</t>
   </si>
   <si>
@@ -194,9 +203,6 @@
   </si>
   <si>
     <t xml:space="preserve">老婆</t>
-  </si>
-  <si>
-    <t xml:space="preserve">朋友</t>
   </si>
   <si>
     <t xml:space="preserve">姑姑</t>
@@ -551,10 +557,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C6 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.46875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -755,6 +761,17 @@
       </c>
       <c r="C18" s="2" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -773,29 +790,32 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D43"/>
+  <dimension ref="A1:D45"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+      <selection pane="topLeft" activeCell="F10" activeCellId="0" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.46875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.25"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>0</v>
       </c>
@@ -803,13 +823,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>333333</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>111111</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
         <v>0</v>
       </c>
@@ -817,10 +837,10 @@
         <v>7</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>333333</v>
+        <v>111111</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -831,13 +851,13 @@
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>333333</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>111111</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
         <v>0</v>
       </c>
@@ -845,10 +865,10 @@
         <v>16</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>333333</v>
+        <v>111111</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -859,528 +879,556 @@
         <v>0</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>333333</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>111111</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>333333</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>111111</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>333333</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>111111</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
         <v>1</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>333333</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>111111</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B10" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="C10" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>111111</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>333333</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
-        <v>2</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>3</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>333333</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>111111</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>333333</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>111111</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B13" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="B13" s="0" t="n">
-        <v>2</v>
-      </c>
       <c r="C13" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>333333</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>111111</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>333333</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>111111</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B15" s="0" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>333333</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>111111</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B16" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>333333</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>111111</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
         <v>5</v>
       </c>
       <c r="B17" s="0" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>333333</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>111111</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
         <v>5</v>
       </c>
       <c r="B18" s="0" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C18" s="0" t="s">
         <v>51</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>333333</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>111111</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B19" s="0" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C19" s="0" t="s">
         <v>52</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>333333</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>111111</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B20" s="0" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C20" s="0" t="s">
         <v>53</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>333333</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>111111</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
         <v>6</v>
       </c>
       <c r="B21" s="0" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C21" s="0" t="s">
         <v>54</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>333333</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>111111</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
         <v>6</v>
       </c>
       <c r="B22" s="0" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C22" s="0" t="s">
         <v>55</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>333333</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>111111</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
         <v>6</v>
       </c>
       <c r="B23" s="0" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>333333</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>111111</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="n">
         <v>6</v>
       </c>
       <c r="B24" s="0" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D24" s="0" t="n">
-        <v>333333</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>111111</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B25" s="0" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C25" s="0" t="s">
         <v>56</v>
       </c>
       <c r="D25" s="0" t="n">
-        <v>333333</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>111111</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B26" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="B26" s="0" t="n">
+      <c r="C26" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <v>111111</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27" s="0" t="n">
+        <v>111111</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B28" s="0" t="n">
         <v>7</v>
-      </c>
-      <c r="C26" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="D26" s="0" t="n">
-        <v>333333</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="B27" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="C27" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="D27" s="0" t="n">
-        <v>333333</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="B28" s="0" t="n">
-        <v>5</v>
       </c>
       <c r="C28" s="0" t="s">
         <v>58</v>
       </c>
       <c r="D28" s="0" t="n">
-        <v>333333</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>111111</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="n">
         <v>10</v>
       </c>
       <c r="B29" s="0" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D29" s="0" t="n">
-        <v>333333</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>111111</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="n">
         <v>10</v>
       </c>
       <c r="B30" s="0" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D30" s="0" t="n">
-        <v>333333</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>111111</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="n">
         <v>10</v>
       </c>
       <c r="B31" s="0" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="D31" s="0" t="n">
-        <v>333333</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>111111</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B32" s="0" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C32" s="0" t="s">
         <v>59</v>
       </c>
       <c r="D32" s="0" t="n">
-        <v>333333</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>111111</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B33" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="D33" s="0" t="n">
+        <v>111111</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="n">
         <v>11</v>
-      </c>
-      <c r="B33" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="C33" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="D33" s="0" t="n">
-        <v>333333</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="n">
-        <v>12</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>8</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="D34" s="0" t="n">
-        <v>333333</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>111111</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="B35" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="B35" s="0" t="n">
+      <c r="C35" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="D35" s="0" t="n">
+        <v>111111</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="B36" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="D36" s="0" t="n">
+        <v>111111</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="B37" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="C35" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="D35" s="0" t="n">
-        <v>333333</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="B36" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C36" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="D36" s="0" t="n">
-        <v>333333</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="B37" s="0" t="n">
-        <v>14</v>
-      </c>
       <c r="C37" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D37" s="0" t="n">
-        <v>333333</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>111111</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="n">
         <v>13</v>
       </c>
       <c r="B38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="D38" s="0" t="n">
+        <v>111111</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="B39" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="D39" s="0" t="n">
+        <v>111111</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="B40" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="C38" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="D38" s="0" t="n">
-        <v>333333</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="B39" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C39" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="D39" s="0" t="n">
-        <v>333333</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="B40" s="0" t="n">
-        <v>13</v>
-      </c>
       <c r="C40" s="0" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="D40" s="0" t="n">
-        <v>333333</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>111111</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="n">
         <v>14</v>
       </c>
       <c r="B41" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="D41" s="0" t="n">
+        <v>111111</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="B42" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="D42" s="0" t="n">
+        <v>111111</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="B43" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="C41" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="D41" s="0" t="n">
-        <v>333333</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="n">
+      <c r="C43" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="D43" s="0" t="n">
+        <v>111111</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="B42" s="0" t="n">
+      <c r="B44" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="C42" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="D42" s="0" t="n">
-        <v>333333</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="n">
+      <c r="C44" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="D44" s="0" t="n">
+        <v>111111</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="B43" s="0" t="n">
+      <c r="B45" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="C43" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="D43" s="0" t="n">
-        <v>333333</v>
+      <c r="C45" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="D45" s="0" t="n">
+        <v>111111</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147">
   <si>
     <t>role_id</t>
   </si>
@@ -374,6 +374,24 @@
   </si>
   <si>
     <t>./img/mayou.jpg</t>
+  </si>
+  <si>
+    <t>小龙</t>
+  </si>
+  <si>
+    <t>./img/xiaolong.jpg</t>
+  </si>
+  <si>
+    <t>玛格丽</t>
+  </si>
+  <si>
+    <t>./img/mageli.jpg</t>
+  </si>
+  <si>
+    <t>速</t>
+  </si>
+  <si>
+    <t>./img/su.jpg</t>
   </si>
   <si>
     <t>source</t>
@@ -1353,13 +1371,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C59"/>
+  <dimension ref="A1:C62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="1">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="1">
+      <selection activeCell="C63" sqref="C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.46666666666667" defaultRowHeight="16.5" outlineLevelCol="2"/>
@@ -2016,6 +2034,39 @@
       </c>
       <c r="C59" s="2" t="s">
         <v>118</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>119</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>121</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>123</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -2031,7 +2082,7 @@
   <dimension ref="A1:D46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
     <sheetView workbookViewId="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -2044,16 +2095,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2064,7 +2115,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="D2">
         <v>111111</v>
@@ -2078,7 +2129,7 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="D3">
         <v>111111</v>
@@ -2092,7 +2143,7 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="D4">
         <v>111111</v>
@@ -2106,7 +2157,7 @@
         <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="D5">
         <v>111111</v>
@@ -2120,7 +2171,7 @@
         <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="D6">
         <v>111111</v>
@@ -2134,7 +2185,7 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="D7">
         <v>111111</v>
@@ -2148,7 +2199,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="D8">
         <v>111111</v>
@@ -2162,7 +2213,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="D9">
         <v>111111</v>
@@ -2176,7 +2227,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="D10">
         <v>111111</v>
@@ -2190,7 +2241,7 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="D11">
         <v>111111</v>
@@ -2204,7 +2255,7 @@
         <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="D12">
         <v>111111</v>
@@ -2218,7 +2269,7 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="D13">
         <v>111111</v>
@@ -2232,7 +2283,7 @@
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="D14">
         <v>111111</v>
@@ -2246,7 +2297,7 @@
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="D15">
         <v>111111</v>
@@ -2260,7 +2311,7 @@
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="D16">
         <v>111111</v>
@@ -2274,7 +2325,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="D17">
         <v>111111</v>
@@ -2288,7 +2339,7 @@
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="D18">
         <v>111111</v>
@@ -2302,7 +2353,7 @@
         <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="D19">
         <v>111111</v>
@@ -2316,7 +2367,7 @@
         <v>15</v>
       </c>
       <c r="C20" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="D20">
         <v>111111</v>
@@ -2330,7 +2381,7 @@
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="D21">
         <v>111111</v>
@@ -2344,7 +2395,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="D22">
         <v>111111</v>
@@ -2358,7 +2409,7 @@
         <v>5</v>
       </c>
       <c r="C23" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="D23">
         <v>111111</v>
@@ -2372,7 +2423,7 @@
         <v>7</v>
       </c>
       <c r="C24" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="D24">
         <v>111111</v>
@@ -2386,7 +2437,7 @@
         <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="D25">
         <v>111111</v>
@@ -2400,7 +2451,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="D26">
         <v>111111</v>
@@ -2414,7 +2465,7 @@
         <v>7</v>
       </c>
       <c r="C27" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="D27">
         <v>111111</v>
@@ -2428,7 +2479,7 @@
         <v>7</v>
       </c>
       <c r="C28" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="D28">
         <v>111111</v>
@@ -2442,7 +2493,7 @@
         <v>5</v>
       </c>
       <c r="C29" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="D29">
         <v>111111</v>
@@ -2456,7 +2507,7 @@
         <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="D30">
         <v>111111</v>
@@ -2470,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="D31">
         <v>111111</v>
@@ -2484,7 +2535,7 @@
         <v>6</v>
       </c>
       <c r="C32" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="D32">
         <v>111111</v>
@@ -2498,7 +2549,7 @@
         <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="D33">
         <v>111111</v>
@@ -2512,7 +2563,7 @@
         <v>12</v>
       </c>
       <c r="C34" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="D34">
         <v>111111</v>
@@ -2526,7 +2577,7 @@
         <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="D35">
         <v>111111</v>
@@ -2540,7 +2591,7 @@
         <v>11</v>
       </c>
       <c r="C36" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="D36">
         <v>111111</v>
@@ -2554,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="D37">
         <v>111111</v>
@@ -2568,7 +2619,7 @@
         <v>14</v>
       </c>
       <c r="C38" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="D38">
         <v>111111</v>
@@ -2582,7 +2633,7 @@
         <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="D39">
         <v>111111</v>
@@ -2596,7 +2647,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="D40">
         <v>111111</v>
@@ -2610,7 +2661,7 @@
         <v>13</v>
       </c>
       <c r="C41" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="D41">
         <v>111111</v>
@@ -2624,7 +2675,7 @@
         <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="D42">
         <v>111111</v>
@@ -2638,7 +2689,7 @@
         <v>5</v>
       </c>
       <c r="C43" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="D43">
         <v>111111</v>
@@ -2652,7 +2703,7 @@
         <v>6</v>
       </c>
       <c r="C44" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="D44">
         <v>111111</v>
@@ -2666,7 +2717,7 @@
         <v>0</v>
       </c>
       <c r="C45" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="D45">
         <v>111111</v>
@@ -2680,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="D46">
         <v>111111</v>

--- a/data.xlsx
+++ b/data.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163">
   <si>
     <t>role_id</t>
   </si>
@@ -392,6 +392,24 @@
   </si>
   <si>
     <t>./img/su.jpg</t>
+  </si>
+  <si>
+    <t>霞(侯妹)</t>
+  </si>
+  <si>
+    <t>./img/houmei.jpg</t>
+  </si>
+  <si>
+    <t>邦戈里</t>
+  </si>
+  <si>
+    <t>./img/banggeli.jpg</t>
+  </si>
+  <si>
+    <t>干玛拉</t>
+  </si>
+  <si>
+    <t>./img/ganmala.jpg</t>
   </si>
   <si>
     <t>source</t>
@@ -447,15 +465,15 @@
     <t>朋友</t>
   </si>
   <si>
+    <t>三巨头</t>
+  </si>
+  <si>
+    <t>夫妻</t>
+  </si>
+  <si>
     <t>爷爷</t>
   </si>
   <si>
-    <t>三巨头</t>
-  </si>
-  <si>
-    <t>夫妻</t>
-  </si>
-  <si>
     <t>姑姑</t>
   </si>
   <si>
@@ -465,12 +483,12 @@
     <t>妈妈</t>
   </si>
   <si>
+    <t>二舅公</t>
+  </si>
+  <si>
     <t>小弟</t>
   </si>
   <si>
-    <t>二舅公</t>
-  </si>
-  <si>
     <t>二舅</t>
   </si>
   <si>
@@ -484,6 +502,36 @@
   </si>
   <si>
     <t>爸爸</t>
+  </si>
+  <si>
+    <t>女儿</t>
+  </si>
+  <si>
+    <t>儿子</t>
+  </si>
+  <si>
+    <t>侄子</t>
+  </si>
+  <si>
+    <t>司机/助理</t>
+  </si>
+  <si>
+    <t>小叔</t>
+  </si>
+  <si>
+    <t>小姨</t>
+  </si>
+  <si>
+    <t>奶奶</t>
+  </si>
+  <si>
+    <t>邻居/小偷</t>
+  </si>
+  <si>
+    <t>司机</t>
+  </si>
+  <si>
+    <t>员工/工头</t>
   </si>
 </sst>
 </file>
@@ -496,7 +544,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -514,6 +562,13 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -990,147 +1045,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1371,13 +1427,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C62"/>
+  <dimension ref="A1:C65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="1">
-      <selection activeCell="C63" sqref="C63"/>
+    <sheetView tabSelected="1" workbookViewId="1">
+      <selection activeCell="A23" sqref="$A23:$XFD25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.46666666666667" defaultRowHeight="16.5" outlineLevelCol="2"/>
@@ -2069,6 +2125,39 @@
         <v>124</v>
       </c>
     </row>
+    <row r="63" spans="1:3">
+      <c r="A63">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>125</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>127</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>129</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -2079,10 +2168,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D46"/>
+  <dimension ref="A1:D74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B64" sqref="B64"/>
     </sheetView>
     <sheetView workbookViewId="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -2095,16 +2184,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2115,7 +2204,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="D2">
         <v>111111</v>
@@ -2129,7 +2218,7 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="D3">
         <v>111111</v>
@@ -2143,7 +2232,7 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="D4">
         <v>111111</v>
@@ -2157,7 +2246,7 @@
         <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="D5">
         <v>111111</v>
@@ -2171,7 +2260,7 @@
         <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="D6">
         <v>111111</v>
@@ -2179,13 +2268,13 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B7">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="C7" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="D7">
         <v>111111</v>
@@ -2193,13 +2282,13 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="C8" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="D8">
         <v>111111</v>
@@ -2207,13 +2296,13 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="C9" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="D9">
         <v>111111</v>
@@ -2221,13 +2310,13 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B10">
-        <v>4</v>
+        <v>61</v>
       </c>
       <c r="C10" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D10">
         <v>111111</v>
@@ -2235,13 +2324,13 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
         <v>2</v>
       </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
       <c r="C11" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D11">
         <v>111111</v>
@@ -2249,13 +2338,13 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B12">
         <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D12">
         <v>111111</v>
@@ -2263,13 +2352,13 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="D13">
         <v>111111</v>
@@ -2277,13 +2366,13 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="D14">
         <v>111111</v>
@@ -2291,13 +2380,13 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="D15">
         <v>111111</v>
@@ -2305,13 +2394,13 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B16">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="D16">
         <v>111111</v>
@@ -2319,13 +2408,13 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C17" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D17">
         <v>111111</v>
@@ -2333,13 +2422,13 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D18">
         <v>111111</v>
@@ -2347,13 +2436,13 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B19">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D19">
         <v>111111</v>
@@ -2361,13 +2450,13 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B20">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C20" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="D20">
         <v>111111</v>
@@ -2375,13 +2464,13 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B21">
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D21">
         <v>111111</v>
@@ -2389,13 +2478,13 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B22">
         <v>0</v>
       </c>
       <c r="C22" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D22">
         <v>111111</v>
@@ -2403,13 +2492,13 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B23">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D23">
         <v>111111</v>
@@ -2417,13 +2506,13 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B24">
         <v>7</v>
       </c>
       <c r="C24" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="D24">
         <v>111111</v>
@@ -2431,13 +2520,13 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B25">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C25" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D25">
         <v>111111</v>
@@ -2445,13 +2534,13 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B26">
         <v>0</v>
       </c>
       <c r="C26" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D26">
         <v>111111</v>
@@ -2459,13 +2548,13 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B27">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D27">
         <v>111111</v>
@@ -2473,13 +2562,13 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B28">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C28" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="D28">
         <v>111111</v>
@@ -2487,13 +2576,13 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B29">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C29" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D29">
         <v>111111</v>
@@ -2501,13 +2590,13 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B30">
         <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D30">
         <v>111111</v>
@@ -2515,13 +2604,13 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C31" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D31">
         <v>111111</v>
@@ -2529,13 +2618,13 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B32">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C32" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="D32">
         <v>111111</v>
@@ -2543,13 +2632,13 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B33">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C33" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D33">
         <v>111111</v>
@@ -2557,13 +2646,13 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B34">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="C34" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="D34">
         <v>111111</v>
@@ -2571,13 +2660,13 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B35">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C35" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="D35">
         <v>111111</v>
@@ -2585,13 +2674,13 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B36">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C36" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D36">
         <v>111111</v>
@@ -2599,13 +2688,13 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C37" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="D37">
         <v>111111</v>
@@ -2613,13 +2702,13 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B38">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="D38">
         <v>111111</v>
@@ -2627,13 +2716,13 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B39">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="D39">
         <v>111111</v>
@@ -2641,13 +2730,13 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C40" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D40">
         <v>111111</v>
@@ -2655,13 +2744,13 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B41">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="D41">
         <v>111111</v>
@@ -2669,13 +2758,13 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B42">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C42" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D42">
         <v>111111</v>
@@ -2683,13 +2772,13 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B43">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C43" t="s">
-        <v>133</v>
+        <v>152</v>
       </c>
       <c r="D43">
         <v>111111</v>
@@ -2697,13 +2786,13 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B44">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="D44">
         <v>111111</v>
@@ -2711,13 +2800,13 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="C45" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="D45">
         <v>111111</v>
@@ -2725,19 +2814,414 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B46">
         <v>0</v>
       </c>
       <c r="C46" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="D46">
         <v>111111</v>
       </c>
     </row>
+    <row r="47" spans="1:4">
+      <c r="A47">
+        <v>14</v>
+      </c>
+      <c r="B47">
+        <v>9</v>
+      </c>
+      <c r="C47" t="s">
+        <v>145</v>
+      </c>
+      <c r="D47">
+        <v>111111</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48">
+        <v>14</v>
+      </c>
+      <c r="B48">
+        <v>13</v>
+      </c>
+      <c r="C48" t="s">
+        <v>141</v>
+      </c>
+      <c r="D48">
+        <v>111111</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49">
+        <v>15</v>
+      </c>
+      <c r="B49">
+        <v>5</v>
+      </c>
+      <c r="C49" t="s">
+        <v>139</v>
+      </c>
+      <c r="D49">
+        <v>111111</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50">
+        <v>15</v>
+      </c>
+      <c r="B50">
+        <v>6</v>
+      </c>
+      <c r="C50" t="s">
+        <v>141</v>
+      </c>
+      <c r="D50">
+        <v>111111</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51">
+        <v>16</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="C51" t="s">
+        <v>138</v>
+      </c>
+      <c r="D51">
+        <v>111111</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52">
+        <v>17</v>
+      </c>
+      <c r="B52">
+        <v>0</v>
+      </c>
+      <c r="C52" t="s">
+        <v>139</v>
+      </c>
+      <c r="D52">
+        <v>111111</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53">
+        <v>21</v>
+      </c>
+      <c r="B53">
+        <v>2</v>
+      </c>
+      <c r="C53" t="s">
+        <v>153</v>
+      </c>
+      <c r="D53">
+        <v>111111</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54">
+        <v>21</v>
+      </c>
+      <c r="B54">
+        <v>22</v>
+      </c>
+      <c r="C54" t="s">
+        <v>153</v>
+      </c>
+      <c r="D54">
+        <v>111111</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55">
+        <v>22</v>
+      </c>
+      <c r="B55">
+        <v>2</v>
+      </c>
+      <c r="C55" t="s">
+        <v>141</v>
+      </c>
+      <c r="D55">
+        <v>111111</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56">
+        <v>23</v>
+      </c>
+      <c r="B56">
+        <v>2</v>
+      </c>
+      <c r="C56" t="s">
+        <v>154</v>
+      </c>
+      <c r="D56">
+        <v>111111</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57">
+        <v>23</v>
+      </c>
+      <c r="B57">
+        <v>22</v>
+      </c>
+      <c r="C57" t="s">
+        <v>154</v>
+      </c>
+      <c r="D57">
+        <v>111111</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58">
+        <v>24</v>
+      </c>
+      <c r="B58">
+        <v>3</v>
+      </c>
+      <c r="C58" t="s">
+        <v>141</v>
+      </c>
+      <c r="D58">
+        <v>111111</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59">
+        <v>25</v>
+      </c>
+      <c r="B59">
+        <v>3</v>
+      </c>
+      <c r="C59" t="s">
+        <v>153</v>
+      </c>
+      <c r="D59">
+        <v>111111</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60">
+        <v>25</v>
+      </c>
+      <c r="B60">
+        <v>24</v>
+      </c>
+      <c r="C60" t="s">
+        <v>153</v>
+      </c>
+      <c r="D60">
+        <v>111111</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61">
+        <v>26</v>
+      </c>
+      <c r="B61">
+        <v>3</v>
+      </c>
+      <c r="C61" t="s">
+        <v>154</v>
+      </c>
+      <c r="D61">
+        <v>111111</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62">
+        <v>26</v>
+      </c>
+      <c r="B62">
+        <v>24</v>
+      </c>
+      <c r="C62" t="s">
+        <v>154</v>
+      </c>
+      <c r="D62">
+        <v>111111</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63">
+        <v>27</v>
+      </c>
+      <c r="B63">
+        <v>3</v>
+      </c>
+      <c r="C63" t="s">
+        <v>155</v>
+      </c>
+      <c r="D63">
+        <v>111111</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64">
+        <v>27</v>
+      </c>
+      <c r="B64">
+        <v>24</v>
+      </c>
+      <c r="C64" t="s">
+        <v>155</v>
+      </c>
+      <c r="D64">
+        <v>111111</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65">
+        <v>31</v>
+      </c>
+      <c r="B65">
+        <v>1</v>
+      </c>
+      <c r="C65" t="s">
+        <v>156</v>
+      </c>
+      <c r="D65">
+        <v>111111</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66">
+        <v>31</v>
+      </c>
+      <c r="B66">
+        <v>2</v>
+      </c>
+      <c r="C66" t="s">
+        <v>156</v>
+      </c>
+      <c r="D66">
+        <v>111111</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67">
+        <v>31</v>
+      </c>
+      <c r="B67">
+        <v>3</v>
+      </c>
+      <c r="C67" t="s">
+        <v>156</v>
+      </c>
+      <c r="D67">
+        <v>111111</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68">
+        <v>35</v>
+      </c>
+      <c r="B68">
+        <v>0</v>
+      </c>
+      <c r="C68" t="s">
+        <v>157</v>
+      </c>
+      <c r="D68">
+        <v>111111</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69">
+        <v>36</v>
+      </c>
+      <c r="B69">
+        <v>0</v>
+      </c>
+      <c r="C69" t="s">
+        <v>158</v>
+      </c>
+      <c r="D69">
+        <v>111111</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70">
+        <v>37</v>
+      </c>
+      <c r="B70">
+        <v>0</v>
+      </c>
+      <c r="C70" t="s">
+        <v>77</v>
+      </c>
+      <c r="D70">
+        <v>111111</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71">
+        <v>37</v>
+      </c>
+      <c r="B71">
+        <v>5</v>
+      </c>
+      <c r="C71" t="s">
+        <v>159</v>
+      </c>
+      <c r="D71">
+        <v>111111</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72">
+        <v>39</v>
+      </c>
+      <c r="B72">
+        <v>1</v>
+      </c>
+      <c r="C72" t="s">
+        <v>160</v>
+      </c>
+      <c r="D72">
+        <v>111111</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73">
+        <v>63</v>
+      </c>
+      <c r="B73">
+        <v>1</v>
+      </c>
+      <c r="C73" t="s">
+        <v>161</v>
+      </c>
+      <c r="D73">
+        <v>111111</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74">
+        <v>63</v>
+      </c>
+      <c r="B74">
+        <v>1</v>
+      </c>
+      <c r="C74" t="s">
+        <v>162</v>
+      </c>
+      <c r="D74">
+        <v>111111</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState ref="A2:D74">
+    <sortCondition ref="A22"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -12,12 +12,15 @@
     <sheet name="Nodes" sheetId="1" r:id="rId1"/>
     <sheet name="Links" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Links!$A$1:$D$94</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177">
   <si>
     <t>role_id</t>
   </si>
@@ -431,6 +434,54 @@
   </si>
   <si>
     <t>哥哥</t>
+  </si>
+  <si>
+    <t>三巨头</t>
+  </si>
+  <si>
+    <t>夫妻</t>
+  </si>
+  <si>
+    <t>爷爷</t>
+  </si>
+  <si>
+    <t>姑姑</t>
+  </si>
+  <si>
+    <t>保姆</t>
+  </si>
+  <si>
+    <t>妈妈</t>
+  </si>
+  <si>
+    <t>朋友</t>
+  </si>
+  <si>
+    <t>二舅公</t>
+  </si>
+  <si>
+    <t>小弟</t>
+  </si>
+  <si>
+    <t>二舅</t>
+  </si>
+  <si>
+    <t>弟弟</t>
+  </si>
+  <si>
+    <t>堂叔</t>
+  </si>
+  <si>
+    <t>干儿子(曾经*参考简介移除*)</t>
+  </si>
+  <si>
+    <t>大舅公</t>
+  </si>
+  <si>
+    <t>大舅</t>
+  </si>
+  <si>
+    <t>爸爸</t>
   </si>
   <si>
     <r>
@@ -462,76 +513,70 @@
     </r>
   </si>
   <si>
-    <t>朋友</t>
-  </si>
-  <si>
-    <t>三巨头</t>
-  </si>
-  <si>
-    <t>夫妻</t>
-  </si>
-  <si>
-    <t>爷爷</t>
-  </si>
-  <si>
-    <t>姑姑</t>
-  </si>
-  <si>
-    <t>保姆</t>
-  </si>
-  <si>
-    <t>妈妈</t>
-  </si>
-  <si>
-    <t>二舅公</t>
-  </si>
-  <si>
-    <t>小弟</t>
-  </si>
-  <si>
-    <t>二舅</t>
-  </si>
-  <si>
-    <t>堂叔</t>
-  </si>
-  <si>
-    <t>大舅公</t>
-  </si>
-  <si>
-    <t>大舅</t>
-  </si>
-  <si>
-    <t>爸爸</t>
-  </si>
-  <si>
     <t>女儿</t>
   </si>
   <si>
+    <t>小姨</t>
+  </si>
+  <si>
     <t>儿子</t>
   </si>
   <si>
+    <t>姐姐</t>
+  </si>
+  <si>
     <t>侄子</t>
   </si>
   <si>
+    <t>妹妹</t>
+  </si>
+  <si>
     <t>司机/助理</t>
   </si>
   <si>
+    <t>保安大队长/助学</t>
+  </si>
+  <si>
     <t>小叔</t>
   </si>
   <si>
-    <t>小姨</t>
-  </si>
-  <si>
     <t>奶奶</t>
   </si>
   <si>
+    <t>表姐</t>
+  </si>
+  <si>
     <t>邻居/小偷</t>
   </si>
   <si>
+    <t>姐姐(非亲)</t>
+  </si>
+  <si>
+    <t>邻居/员工/助学(曾经)</t>
+  </si>
+  <si>
+    <t>保姆(曾经)</t>
+  </si>
+  <si>
+    <t>朋友/邻居</t>
+  </si>
+  <si>
+    <t>邻居</t>
+  </si>
+  <si>
+    <t>员工(曾经)</t>
+  </si>
+  <si>
+    <t>员工/工头</t>
+  </si>
+  <si>
     <t>司机</t>
   </si>
   <si>
-    <t>员工/工头</t>
+    <t>兼职保姆</t>
+  </si>
+  <si>
+    <t>助学</t>
   </si>
 </sst>
 </file>
@@ -1433,7 +1478,7 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
     <sheetView tabSelected="1" workbookViewId="1">
-      <selection activeCell="A23" sqref="$A23:$XFD25"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.46666666666667" defaultRowHeight="16.5" outlineLevelCol="2"/>
@@ -2168,18 +2213,18 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D74"/>
+  <dimension ref="A1:D132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B64" sqref="B64"/>
+    <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
+      <selection activeCell="D132" sqref="D132"/>
     </sheetView>
-    <sheetView workbookViewId="1">
+    <sheetView topLeftCell="A76" workbookViewId="1">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.46666666666667" defaultRowHeight="16.5" outlineLevelCol="3"/>
   <cols>
-    <col min="3" max="3" width="9.25185185185185" customWidth="1"/>
+    <col min="3" max="3" width="14.1111111111111" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -2243,10 +2288,10 @@
         <v>0</v>
       </c>
       <c r="B5">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="C5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D5">
         <v>111111</v>
@@ -2254,13 +2299,13 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B6">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D6">
         <v>111111</v>
@@ -2268,13 +2313,13 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B7">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D7">
         <v>111111</v>
@@ -2282,10 +2327,10 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B8">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="C8" t="s">
         <v>139</v>
@@ -2296,13 +2341,13 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B9">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D9">
         <v>111111</v>
@@ -2310,13 +2355,13 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B10">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D10">
         <v>111111</v>
@@ -2324,13 +2369,13 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11">
         <v>1</v>
       </c>
-      <c r="B11">
-        <v>2</v>
-      </c>
       <c r="C11" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D11">
         <v>111111</v>
@@ -2338,13 +2383,13 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B12">
         <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D12">
         <v>111111</v>
@@ -2352,13 +2397,13 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B13">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D13">
         <v>111111</v>
@@ -2366,13 +2411,13 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14">
         <v>1</v>
       </c>
-      <c r="B14">
-        <v>7</v>
-      </c>
       <c r="C14" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D14">
         <v>111111</v>
@@ -2380,13 +2425,13 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15">
+        <v>3</v>
+      </c>
+      <c r="B15">
         <v>2</v>
       </c>
-      <c r="B15">
-        <v>22</v>
-      </c>
       <c r="C15" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D15">
         <v>111111</v>
@@ -2394,13 +2439,13 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D16">
         <v>111111</v>
@@ -2408,13 +2453,13 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B17">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C17" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D17">
         <v>111111</v>
@@ -2422,13 +2467,13 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B18">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D18">
         <v>111111</v>
@@ -2436,13 +2481,13 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D19">
         <v>111111</v>
@@ -2450,13 +2495,13 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B20">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C20" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="D20">
         <v>111111</v>
@@ -2464,13 +2509,13 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="D21">
         <v>111111</v>
@@ -2478,13 +2523,13 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D22">
         <v>111111</v>
@@ -2492,13 +2537,13 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23">
+        <v>6</v>
+      </c>
+      <c r="B23">
         <v>5</v>
       </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
       <c r="C23" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="D23">
         <v>111111</v>
@@ -2506,7 +2551,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B24">
         <v>7</v>
@@ -2520,13 +2565,13 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B25">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="D25">
         <v>111111</v>
@@ -2537,10 +2582,10 @@
         <v>6</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C26" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="D26">
         <v>111111</v>
@@ -2551,10 +2596,10 @@
         <v>6</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C27" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D27">
         <v>111111</v>
@@ -2562,13 +2607,13 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B28">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C28" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D28">
         <v>111111</v>
@@ -2576,13 +2621,13 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B29">
         <v>7</v>
       </c>
       <c r="C29" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D29">
         <v>111111</v>
@@ -2590,13 +2635,13 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B30">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="C30" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="D30">
         <v>111111</v>
@@ -2604,13 +2649,13 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B31">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="C31" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D31">
         <v>111111</v>
@@ -2621,10 +2666,10 @@
         <v>8</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C32" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D32">
         <v>111111</v>
@@ -2632,13 +2677,13 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B33">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="C33" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="D33">
         <v>111111</v>
@@ -2652,7 +2697,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D34">
         <v>111111</v>
@@ -2666,7 +2711,7 @@
         <v>5</v>
       </c>
       <c r="C35" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D35">
         <v>111111</v>
@@ -2694,7 +2739,7 @@
         <v>7</v>
       </c>
       <c r="C37" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D37">
         <v>111111</v>
@@ -2708,7 +2753,7 @@
         <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D38">
         <v>111111</v>
@@ -2716,13 +2761,13 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B39">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C39" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D39">
         <v>111111</v>
@@ -2733,10 +2778,10 @@
         <v>11</v>
       </c>
       <c r="B40">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="D40">
         <v>111111</v>
@@ -2744,13 +2789,13 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41">
+        <v>11</v>
+      </c>
+      <c r="B41">
         <v>12</v>
       </c>
-      <c r="B41">
-        <v>8</v>
-      </c>
       <c r="C41" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="D41">
         <v>111111</v>
@@ -2761,10 +2806,10 @@
         <v>12</v>
       </c>
       <c r="B42">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D42">
         <v>111111</v>
@@ -2772,13 +2817,13 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B43">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C43" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="D43">
         <v>111111</v>
@@ -2789,10 +2834,10 @@
         <v>13</v>
       </c>
       <c r="B44">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="C44" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D44">
         <v>111111</v>
@@ -2803,10 +2848,10 @@
         <v>13</v>
       </c>
       <c r="B45">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="C45" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="D45">
         <v>111111</v>
@@ -2814,13 +2859,13 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B46">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="D46">
         <v>111111</v>
@@ -2828,13 +2873,13 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47">
+        <v>13</v>
+      </c>
+      <c r="B47">
         <v>14</v>
       </c>
-      <c r="B47">
-        <v>9</v>
-      </c>
       <c r="C47" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="D47">
         <v>111111</v>
@@ -2845,10 +2890,10 @@
         <v>14</v>
       </c>
       <c r="B48">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="C48" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D48">
         <v>111111</v>
@@ -2856,13 +2901,13 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B49">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C49" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="D49">
         <v>111111</v>
@@ -2870,13 +2915,13 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B50">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D50">
         <v>111111</v>
@@ -2884,13 +2929,13 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B51">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C51" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D51">
         <v>111111</v>
@@ -2898,10 +2943,10 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C52" t="s">
         <v>139</v>
@@ -2912,13 +2957,13 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B53">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C53" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D53">
         <v>111111</v>
@@ -2926,13 +2971,13 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B54">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="C54" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="D54">
         <v>111111</v>
@@ -2940,13 +2985,13 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B55">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C55" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="D55">
         <v>111111</v>
@@ -2954,13 +2999,13 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B56">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C56" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D56">
         <v>111111</v>
@@ -2968,13 +3013,13 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B57">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="C57" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D57">
         <v>111111</v>
@@ -2982,13 +3027,13 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B58">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C58" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="D58">
         <v>111111</v>
@@ -2996,13 +3041,13 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B59">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C59" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="D59">
         <v>111111</v>
@@ -3010,13 +3055,13 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B60">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="C60" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="D60">
         <v>111111</v>
@@ -3024,13 +3069,13 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B61">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C61" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D61">
         <v>111111</v>
@@ -3038,13 +3083,13 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B62">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="C62" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D62">
         <v>111111</v>
@@ -3052,13 +3097,13 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B63">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="C63" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D63">
         <v>111111</v>
@@ -3066,10 +3111,10 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B64">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="C64" t="s">
         <v>155</v>
@@ -3080,13 +3125,13 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="B65">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="C65" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D65">
         <v>111111</v>
@@ -3094,13 +3139,13 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B66">
         <v>2</v>
       </c>
       <c r="C66" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="D66">
         <v>111111</v>
@@ -3108,13 +3153,13 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B67">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="C67" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="D67">
         <v>111111</v>
@@ -3122,10 +3167,10 @@
     </row>
     <row r="68" spans="1:4">
       <c r="A68">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B68">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C68" t="s">
         <v>157</v>
@@ -3136,13 +3181,13 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="B69">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="C69" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D69">
         <v>111111</v>
@@ -3150,13 +3195,13 @@
     </row>
     <row r="70" spans="1:4">
       <c r="A70">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="B70">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C70" t="s">
-        <v>77</v>
+        <v>139</v>
       </c>
       <c r="D70">
         <v>111111</v>
@@ -3164,13 +3209,13 @@
     </row>
     <row r="71" spans="1:4">
       <c r="A71">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="B71">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C71" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D71">
         <v>111111</v>
@@ -3178,13 +3223,13 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="B72">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="C72" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D72">
         <v>111111</v>
@@ -3192,13 +3237,13 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="B73">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C73" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D73">
         <v>111111</v>
@@ -3206,21 +3251,839 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74">
+        <v>26</v>
+      </c>
+      <c r="B74">
+        <v>24</v>
+      </c>
+      <c r="C74" t="s">
+        <v>157</v>
+      </c>
+      <c r="D74">
+        <v>111111</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75">
+        <v>27</v>
+      </c>
+      <c r="B75">
+        <v>3</v>
+      </c>
+      <c r="C75" t="s">
+        <v>159</v>
+      </c>
+      <c r="D75">
+        <v>111111</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76">
+        <v>27</v>
+      </c>
+      <c r="B76">
+        <v>24</v>
+      </c>
+      <c r="C76" t="s">
+        <v>159</v>
+      </c>
+      <c r="D76">
+        <v>111111</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77">
+        <v>28</v>
+      </c>
+      <c r="B77">
+        <v>12</v>
+      </c>
+      <c r="C77" t="s">
+        <v>160</v>
+      </c>
+      <c r="D77">
+        <v>111111</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78">
+        <v>29</v>
+      </c>
+      <c r="B78">
+        <v>12</v>
+      </c>
+      <c r="C78" t="s">
+        <v>160</v>
+      </c>
+      <c r="D78">
+        <v>111111</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79">
+        <v>30</v>
+      </c>
+      <c r="B79">
+        <v>11</v>
+      </c>
+      <c r="C79" t="s">
+        <v>155</v>
+      </c>
+      <c r="D79">
+        <v>111111</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80">
+        <v>30</v>
+      </c>
+      <c r="B80">
+        <v>12</v>
+      </c>
+      <c r="C80" t="s">
+        <v>155</v>
+      </c>
+      <c r="D80">
+        <v>111111</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81">
+        <v>31</v>
+      </c>
+      <c r="B81">
+        <v>1</v>
+      </c>
+      <c r="C81" t="s">
+        <v>161</v>
+      </c>
+      <c r="D81">
+        <v>111111</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82">
+        <v>31</v>
+      </c>
+      <c r="B82">
+        <v>2</v>
+      </c>
+      <c r="C82" t="s">
+        <v>161</v>
+      </c>
+      <c r="D82">
+        <v>111111</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83">
+        <v>32</v>
+      </c>
+      <c r="B83">
+        <v>2</v>
+      </c>
+      <c r="C83" t="s">
+        <v>162</v>
+      </c>
+      <c r="D83">
+        <v>111111</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84">
+        <v>33</v>
+      </c>
+      <c r="B84">
+        <v>32</v>
+      </c>
+      <c r="C84" t="s">
+        <v>143</v>
+      </c>
+      <c r="D84">
+        <v>111111</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85">
+        <v>33</v>
+      </c>
+      <c r="B85">
+        <v>34</v>
+      </c>
+      <c r="C85" t="s">
+        <v>139</v>
+      </c>
+      <c r="D85">
+        <v>111111</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86">
+        <v>34</v>
+      </c>
+      <c r="B86">
+        <v>32</v>
+      </c>
+      <c r="C86" t="s">
+        <v>153</v>
+      </c>
+      <c r="D86">
+        <v>111111</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87">
+        <v>34</v>
+      </c>
+      <c r="B87">
+        <v>33</v>
+      </c>
+      <c r="C87" t="s">
+        <v>139</v>
+      </c>
+      <c r="D87">
+        <v>111111</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88">
+        <v>35</v>
+      </c>
+      <c r="B88">
+        <v>0</v>
+      </c>
+      <c r="C88" t="s">
+        <v>163</v>
+      </c>
+      <c r="D88">
+        <v>111111</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89">
+        <v>35</v>
+      </c>
+      <c r="B89">
+        <v>11</v>
+      </c>
+      <c r="C89" t="s">
+        <v>157</v>
+      </c>
+      <c r="D89">
+        <v>111111</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90">
+        <v>35</v>
+      </c>
+      <c r="B90">
+        <v>12</v>
+      </c>
+      <c r="C90" t="s">
+        <v>157</v>
+      </c>
+      <c r="D90">
+        <v>111111</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91">
+        <v>35</v>
+      </c>
+      <c r="B91">
+        <v>36</v>
+      </c>
+      <c r="C91" t="s">
+        <v>137</v>
+      </c>
+      <c r="D91">
+        <v>111111</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92">
+        <v>36</v>
+      </c>
+      <c r="B92">
+        <v>0</v>
+      </c>
+      <c r="C92" t="s">
+        <v>156</v>
+      </c>
+      <c r="D92">
+        <v>111111</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93">
+        <v>36</v>
+      </c>
+      <c r="B93">
+        <v>11</v>
+      </c>
+      <c r="C93" t="s">
+        <v>155</v>
+      </c>
+      <c r="D93">
+        <v>111111</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94">
+        <v>36</v>
+      </c>
+      <c r="B94">
+        <v>12</v>
+      </c>
+      <c r="C94" t="s">
+        <v>155</v>
+      </c>
+      <c r="D94">
+        <v>111111</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95">
+        <v>37</v>
+      </c>
+      <c r="B95">
+        <v>0</v>
+      </c>
+      <c r="C95" t="s">
+        <v>77</v>
+      </c>
+      <c r="D95">
+        <v>111111</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96">
+        <v>37</v>
+      </c>
+      <c r="B96">
+        <v>5</v>
+      </c>
+      <c r="C96" t="s">
+        <v>164</v>
+      </c>
+      <c r="D96">
+        <v>111111</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97">
+        <v>38</v>
+      </c>
+      <c r="B97">
+        <v>5</v>
+      </c>
+      <c r="C97" t="s">
+        <v>144</v>
+      </c>
+      <c r="D97">
+        <v>111111</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98">
+        <v>38</v>
+      </c>
+      <c r="B98">
+        <v>42</v>
+      </c>
+      <c r="C98" t="s">
+        <v>165</v>
+      </c>
+      <c r="D98">
+        <v>111111</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99">
+        <v>39</v>
+      </c>
+      <c r="B99">
+        <v>1</v>
+      </c>
+      <c r="C99" t="s">
+        <v>166</v>
+      </c>
+      <c r="D99">
+        <v>111111</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100">
+        <v>40</v>
+      </c>
+      <c r="B100">
+        <v>0</v>
+      </c>
+      <c r="C100" t="s">
+        <v>144</v>
+      </c>
+      <c r="D100">
+        <v>111111</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101">
+        <v>41</v>
+      </c>
+      <c r="B101">
+        <v>0</v>
+      </c>
+      <c r="C101" t="s">
+        <v>144</v>
+      </c>
+      <c r="D101">
+        <v>111111</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102">
+        <v>42</v>
+      </c>
+      <c r="B102">
+        <v>0</v>
+      </c>
+      <c r="C102" t="s">
+        <v>144</v>
+      </c>
+      <c r="D102">
+        <v>111111</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103">
+        <v>43</v>
+      </c>
+      <c r="B103">
+        <v>44</v>
+      </c>
+      <c r="C103" t="s">
+        <v>139</v>
+      </c>
+      <c r="D103">
+        <v>111111</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104">
+        <v>44</v>
+      </c>
+      <c r="B104">
+        <v>43</v>
+      </c>
+      <c r="C104" t="s">
+        <v>139</v>
+      </c>
+      <c r="D104">
+        <v>111111</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105">
+        <v>45</v>
+      </c>
+      <c r="B105">
+        <v>44</v>
+      </c>
+      <c r="C105" t="s">
+        <v>148</v>
+      </c>
+      <c r="D105">
+        <v>111111</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106">
+        <v>46</v>
+      </c>
+      <c r="B106">
+        <v>43</v>
+      </c>
+      <c r="C106" t="s">
+        <v>155</v>
+      </c>
+      <c r="D106">
+        <v>111111</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107">
+        <v>46</v>
+      </c>
+      <c r="B107">
+        <v>44</v>
+      </c>
+      <c r="C107" t="s">
+        <v>155</v>
+      </c>
+      <c r="D107">
+        <v>111111</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108">
+        <v>47</v>
+      </c>
+      <c r="B108">
+        <v>44</v>
+      </c>
+      <c r="C108" t="s">
+        <v>160</v>
+      </c>
+      <c r="D108">
+        <v>111111</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109">
+        <v>48</v>
+      </c>
+      <c r="B109">
+        <v>43</v>
+      </c>
+      <c r="C109" t="s">
+        <v>155</v>
+      </c>
+      <c r="D109">
+        <v>111111</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110">
+        <v>48</v>
+      </c>
+      <c r="B110">
+        <v>44</v>
+      </c>
+      <c r="C110" t="s">
+        <v>155</v>
+      </c>
+      <c r="D110">
+        <v>111111</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111">
+        <v>49</v>
+      </c>
+      <c r="B111">
+        <v>44</v>
+      </c>
+      <c r="C111" t="s">
+        <v>148</v>
+      </c>
+      <c r="D111">
+        <v>111111</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112">
+        <v>50</v>
+      </c>
+      <c r="B112">
+        <v>44</v>
+      </c>
+      <c r="C112" t="s">
+        <v>155</v>
+      </c>
+      <c r="D112">
+        <v>111111</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113">
+        <v>50</v>
+      </c>
+      <c r="B113">
+        <v>46</v>
+      </c>
+      <c r="C113" t="s">
+        <v>167</v>
+      </c>
+      <c r="D113">
+        <v>111111</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114">
+        <v>50</v>
+      </c>
+      <c r="B114">
+        <v>2</v>
+      </c>
+      <c r="C114" t="s">
+        <v>168</v>
+      </c>
+      <c r="D114">
+        <v>111111</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115">
+        <v>51</v>
+      </c>
+      <c r="B115">
+        <v>44</v>
+      </c>
+      <c r="C115" t="s">
+        <v>148</v>
+      </c>
+      <c r="D115">
+        <v>111111</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116">
+        <v>52</v>
+      </c>
+      <c r="B116">
+        <v>53</v>
+      </c>
+      <c r="C116" t="s">
+        <v>139</v>
+      </c>
+      <c r="D116">
+        <v>111111</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117">
+        <v>52</v>
+      </c>
+      <c r="B117">
+        <v>1</v>
+      </c>
+      <c r="C117" t="s">
+        <v>169</v>
+      </c>
+      <c r="D117">
+        <v>111111</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118">
+        <v>52</v>
+      </c>
+      <c r="B118">
+        <v>2</v>
+      </c>
+      <c r="C118" t="s">
+        <v>144</v>
+      </c>
+      <c r="D118">
+        <v>111111</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119">
+        <v>52</v>
+      </c>
+      <c r="B119">
+        <v>5</v>
+      </c>
+      <c r="C119" t="s">
+        <v>144</v>
+      </c>
+      <c r="D119">
+        <v>111111</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120">
+        <v>53</v>
+      </c>
+      <c r="B120">
+        <v>52</v>
+      </c>
+      <c r="C120" t="s">
+        <v>139</v>
+      </c>
+      <c r="D120">
+        <v>111111</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121">
+        <v>54</v>
+      </c>
+      <c r="B121">
+        <v>52</v>
+      </c>
+      <c r="C121" t="s">
+        <v>157</v>
+      </c>
+      <c r="D121">
+        <v>111111</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122">
+        <v>55</v>
+      </c>
+      <c r="B122">
+        <v>52</v>
+      </c>
+      <c r="C122" t="s">
+        <v>157</v>
+      </c>
+      <c r="D122">
+        <v>111111</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123">
+        <v>55</v>
+      </c>
+      <c r="B123">
+        <v>53</v>
+      </c>
+      <c r="C123" t="s">
+        <v>157</v>
+      </c>
+      <c r="D123">
+        <v>111111</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124">
+        <v>56</v>
+      </c>
+      <c r="B124">
+        <v>7</v>
+      </c>
+      <c r="C124" t="s">
+        <v>170</v>
+      </c>
+      <c r="D124">
+        <v>111111</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125">
+        <v>57</v>
+      </c>
+      <c r="B125">
+        <v>2</v>
+      </c>
+      <c r="C125" t="s">
+        <v>171</v>
+      </c>
+      <c r="D125">
+        <v>111111</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126">
+        <v>59</v>
+      </c>
+      <c r="B126">
+        <v>58</v>
+      </c>
+      <c r="C126" t="s">
+        <v>143</v>
+      </c>
+      <c r="D126">
+        <v>111111</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127">
+        <v>59</v>
+      </c>
+      <c r="B127">
+        <v>3</v>
+      </c>
+      <c r="C127" t="s">
+        <v>142</v>
+      </c>
+      <c r="D127">
+        <v>111111</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128">
+        <v>60</v>
+      </c>
+      <c r="B128">
+        <v>3</v>
+      </c>
+      <c r="C128" t="s">
+        <v>172</v>
+      </c>
+      <c r="D128">
+        <v>111111</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129">
+        <v>62</v>
+      </c>
+      <c r="B129">
+        <v>1</v>
+      </c>
+      <c r="C129" t="s">
+        <v>173</v>
+      </c>
+      <c r="D129">
+        <v>111111</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130">
         <v>63</v>
       </c>
-      <c r="B74">
+      <c r="B130">
         <v>1</v>
       </c>
-      <c r="C74" t="s">
-        <v>162</v>
-      </c>
-      <c r="D74">
+      <c r="C130" t="s">
+        <v>174</v>
+      </c>
+      <c r="D130">
+        <v>111111</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131">
+        <v>38</v>
+      </c>
+      <c r="B131">
+        <v>3</v>
+      </c>
+      <c r="C131" t="s">
+        <v>175</v>
+      </c>
+      <c r="D131">
+        <v>111111</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132">
+        <v>42</v>
+      </c>
+      <c r="B132">
+        <v>3</v>
+      </c>
+      <c r="C132" t="s">
+        <v>176</v>
+      </c>
+      <c r="D132">
         <v>111111</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:D74">
-    <sortCondition ref="A22"/>
+  <autoFilter ref="A1:D94">
+    <sortState ref="A2:D94">
+      <sortCondition ref="A6"/>
+    </sortState>
+    <extLst/>
+  </autoFilter>
+  <sortState ref="A2:D130">
+    <sortCondition ref="A125"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1478,7 +1478,7 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
     <sheetView tabSelected="1" workbookViewId="1">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.46666666666667" defaultRowHeight="16.5" outlineLevelCol="2"/>
